--- a/docs/CareConnect-MedicationRequest-1.xlsx
+++ b/docs/CareConnect-MedicationRequest-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="712">
   <si>
     <t>Path</t>
   </si>
@@ -1362,6 +1362,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction.coding.system</t>
@@ -10403,10 +10409,10 @@
         <v>426</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10478,7 +10484,7 @@
         <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -10489,7 +10495,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10515,23 +10521,23 @@
         <v>66</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>44</v>
@@ -10573,7 +10579,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10594,18 +10600,18 @@
         <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10631,13 +10637,13 @@
         <v>134</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10687,7 +10693,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10708,18 +10714,18 @@
         <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10745,14 +10751,14 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10801,7 +10807,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10822,18 +10828,18 @@
         <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10859,14 +10865,14 @@
         <v>134</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10915,7 +10921,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10936,18 +10942,18 @@
         <v>44</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10970,19 +10976,19 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -11031,7 +11037,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -11052,18 +11058,18 @@
         <v>44</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11089,16 +11095,16 @@
         <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
@@ -11147,7 +11153,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -11168,18 +11174,18 @@
         <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11205,10 +11211,10 @@
         <v>134</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11259,7 +11265,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11291,7 +11297,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11314,19 +11320,19 @@
         <v>54</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11375,7 +11381,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11396,7 +11402,7 @@
         <v>44</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>44</v>
@@ -11407,7 +11413,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11430,16 +11436,16 @@
         <v>54</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11468,10 +11474,10 @@
         <v>342</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11489,7 +11495,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11510,7 +11516,7 @@
         <v>44</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
@@ -11521,7 +11527,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11547,16 +11553,16 @@
         <v>155</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
@@ -11584,10 +11590,10 @@
         <v>342</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>44</v>
@@ -11605,7 +11611,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11626,7 +11632,7 @@
         <v>44</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>44</v>
@@ -11637,7 +11643,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11663,14 +11669,14 @@
         <v>155</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>44</v>
@@ -11698,10 +11704,10 @@
         <v>342</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>44</v>
@@ -11719,7 +11725,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11740,7 +11746,7 @@
         <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11751,7 +11757,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11863,7 +11869,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11977,7 +11983,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12091,7 +12097,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>422</v>
@@ -12156,10 +12162,10 @@
         <v>243</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>44</v>
@@ -12209,7 +12215,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12321,7 +12327,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12433,7 +12439,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>425</v>
@@ -12461,10 +12467,10 @@
         <v>426</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12536,7 +12542,7 @@
         <v>44</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>44</v>
@@ -12547,7 +12553,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12573,23 +12579,23 @@
         <v>66</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12631,7 +12637,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12652,18 +12658,18 @@
         <v>44</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12689,13 +12695,13 @@
         <v>134</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12745,7 +12751,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12766,18 +12772,18 @@
         <v>44</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12803,14 +12809,14 @@
         <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12859,7 +12865,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12880,18 +12886,18 @@
         <v>44</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12917,14 +12923,14 @@
         <v>134</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12973,7 +12979,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12994,18 +13000,18 @@
         <v>44</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13028,19 +13034,19 @@
         <v>54</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -13089,7 +13095,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -13110,18 +13116,18 @@
         <v>44</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13147,16 +13153,16 @@
         <v>134</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>44</v>
@@ -13205,7 +13211,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -13226,18 +13232,18 @@
         <v>44</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13263,16 +13269,16 @@
         <v>155</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -13300,10 +13306,10 @@
         <v>342</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>44</v>
@@ -13321,7 +13327,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13342,7 +13348,7 @@
         <v>44</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>44</v>
@@ -13353,7 +13359,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13376,19 +13382,19 @@
         <v>54</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
@@ -13437,7 +13443,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13458,7 +13464,7 @@
         <v>44</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>44</v>
@@ -13469,7 +13475,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13492,19 +13498,19 @@
         <v>54</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>44</v>
@@ -13553,7 +13559,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13574,7 +13580,7 @@
         <v>44</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>44</v>
@@ -13585,7 +13591,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13608,19 +13614,19 @@
         <v>54</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>44</v>
@@ -13669,7 +13675,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13690,7 +13696,7 @@
         <v>44</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>44</v>
@@ -13701,7 +13707,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13724,17 +13730,17 @@
         <v>54</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>44</v>
@@ -13783,7 +13789,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13804,7 +13810,7 @@
         <v>44</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>44</v>
@@ -13815,7 +13821,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13838,19 +13844,19 @@
         <v>54</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>44</v>
@@ -13899,7 +13905,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13920,7 +13926,7 @@
         <v>44</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>44</v>
@@ -13931,7 +13937,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13957,10 +13963,10 @@
         <v>304</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14011,7 +14017,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -14023,16 +14029,16 @@
         <v>44</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>44</v>
@@ -14043,7 +14049,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14155,7 +14161,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14269,7 +14275,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14383,7 +14389,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14409,16 +14415,16 @@
         <v>181</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>44</v>
@@ -14467,7 +14473,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14485,10 +14491,10 @@
         <v>44</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>44</v>
@@ -14499,7 +14505,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14522,16 +14528,16 @@
         <v>44</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14581,7 +14587,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14599,21 +14605,21 @@
         <v>44</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14636,13 +14642,13 @@
         <v>44</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14693,7 +14699,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14711,21 +14717,21 @@
         <v>44</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14837,7 +14843,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14949,10 +14955,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>44</v>
@@ -14974,13 +14980,13 @@
         <v>44</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15063,7 +15069,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15086,19 +15092,19 @@
         <v>54</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>44</v>
@@ -15147,7 +15153,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -15168,18 +15174,18 @@
         <v>44</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15205,22 +15211,22 @@
         <v>72</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P113" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q113" t="s" s="2">
         <v>44</v>
@@ -15244,10 +15250,10 @@
         <v>149</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>44</v>
@@ -15265,7 +15271,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15286,18 +15292,18 @@
         <v>44</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15323,14 +15329,14 @@
         <v>134</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>44</v>
@@ -15379,7 +15385,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15400,18 +15406,18 @@
         <v>44</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15437,14 +15443,14 @@
         <v>66</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>44</v>
@@ -15493,7 +15499,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15502,7 +15508,7 @@
         <v>53</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>44</v>
@@ -15514,18 +15520,18 @@
         <v>44</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15551,16 +15557,16 @@
         <v>72</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>44</v>
@@ -15609,7 +15615,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15630,18 +15636,18 @@
         <v>44</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15664,16 +15670,16 @@
         <v>44</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15723,7 +15729,7 @@
         <v>44</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15741,10 +15747,10 @@
         <v>44</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>44</v>
@@ -15755,7 +15761,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15867,7 +15873,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15981,7 +15987,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16004,19 +16010,19 @@
         <v>54</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>44</v>
@@ -16065,7 +16071,7 @@
         <v>44</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -16086,18 +16092,18 @@
         <v>44</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16123,22 +16129,22 @@
         <v>72</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>44</v>
@@ -16162,10 +16168,10 @@
         <v>149</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>44</v>
@@ -16183,7 +16189,7 @@
         <v>44</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -16204,18 +16210,18 @@
         <v>44</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16241,14 +16247,14 @@
         <v>134</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>44</v>
@@ -16297,7 +16303,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16318,18 +16324,18 @@
         <v>44</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16355,21 +16361,21 @@
         <v>66</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>44</v>
@@ -16411,7 +16417,7 @@
         <v>44</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16420,7 +16426,7 @@
         <v>53</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>44</v>
@@ -16432,18 +16438,18 @@
         <v>44</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16469,16 +16475,16 @@
         <v>72</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>44</v>
@@ -16506,10 +16512,10 @@
         <v>149</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>44</v>
@@ -16527,7 +16533,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16548,18 +16554,18 @@
         <v>44</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16585,10 +16591,10 @@
         <v>188</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -16639,7 +16645,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16660,7 +16666,7 @@
         <v>44</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>337</v>
@@ -16671,7 +16677,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16697,10 +16703,10 @@
         <v>304</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16751,7 +16757,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16763,16 +16769,16 @@
         <v>44</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>44</v>
@@ -16783,7 +16789,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16895,7 +16901,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17009,7 +17015,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17123,7 +17129,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17146,16 +17152,16 @@
         <v>44</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17205,7 +17211,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>53</v>
@@ -17223,21 +17229,21 @@
         <v>44</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17263,10 +17269,10 @@
         <v>155</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17296,10 +17302,10 @@
         <v>342</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>44</v>
@@ -17317,7 +17323,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17335,21 +17341,21 @@
         <v>44</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17372,13 +17378,13 @@
         <v>44</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17429,7 +17435,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -17444,13 +17450,13 @@
         <v>44</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>44</v>
@@ -17461,11 +17467,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17484,13 +17490,13 @@
         <v>44</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17541,7 +17547,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17562,7 +17568,7 @@
         <v>44</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>44</v>
@@ -17573,7 +17579,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17596,16 +17602,16 @@
         <v>44</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17655,7 +17661,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17670,13 +17676,13 @@
         <v>44</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>

--- a/docs/CareConnect-MedicationRequest-1.xlsx
+++ b/docs/CareConnect-MedicationRequest-1.xlsx
@@ -2395,11 +2395,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="83.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2412,19 +2412,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-MedicationRequest-1.xlsx
+++ b/docs/CareConnect-MedicationRequest-1.xlsx
@@ -2395,11 +2395,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="83.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2412,19 +2412,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.46484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
